--- a/output/describe.xlsx
+++ b/output/describe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>A_P_L1</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>B_D_4</t>
+  </si>
+  <si>
+    <t>LC_FP</t>
+  </si>
+  <si>
+    <t>LC_CONCAT</t>
   </si>
   <si>
     <t>SUM_V_A</t>
@@ -527,13 +533,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS9"/>
+  <dimension ref="A1:AU9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:47">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,10 +672,16 @@
       <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:47">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>100000</v>
@@ -803,58 +815,64 @@
       <c r="AS2">
         <v>100000</v>
       </c>
+      <c r="AT2">
+        <v>100000</v>
+      </c>
+      <c r="AU2">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:47">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3">
-        <v>-1.883865285989828E-16</v>
+        <v>-5.746669806683258E-16</v>
       </c>
       <c r="C3">
-        <v>-4.707584148888611E-18</v>
+        <v>-1.86215071140694E-15</v>
       </c>
       <c r="D3">
-        <v>1.390576542803501E-16</v>
+        <v>5.148792503462119E-16</v>
       </c>
       <c r="E3">
-        <v>8.243856985945541E-18</v>
+        <v>-5.013978121581886E-16</v>
       </c>
       <c r="F3">
-        <v>6.835587651465857E-17</v>
+        <v>2.95792279558782E-16</v>
       </c>
       <c r="G3">
-        <v>-2.283685393567047E-18</v>
+        <v>-1.898899371077789E-15</v>
       </c>
       <c r="H3">
-        <v>4.127476138648944E-17</v>
+        <v>1.161271079297421E-16</v>
       </c>
       <c r="I3">
-        <v>-5.883531509209839E-20</v>
+        <v>-6.946526687201526E-17</v>
       </c>
       <c r="J3">
-        <v>1.213479317030419E-16</v>
+        <v>5.072364750446923E-16</v>
       </c>
       <c r="K3">
-        <v>-2.281621072630635E-18</v>
+        <v>-1.448158259975685E-16</v>
       </c>
       <c r="L3">
-        <v>-8.859857292264905E-17</v>
+        <v>-2.702238433016646E-16</v>
       </c>
       <c r="M3">
-        <v>5.764095797888835E-18</v>
+        <v>-1.712213704152532E-16</v>
       </c>
       <c r="N3">
-        <v>-9.656997423945767E-17</v>
+        <v>-1.080735501091112E-16</v>
       </c>
       <c r="O3">
-        <v>-2.228110924928917E-17</v>
+        <v>-1.106592595334632E-15</v>
       </c>
       <c r="P3">
-        <v>1.627442625107278E-16</v>
+        <v>5.891065413266005E-16</v>
       </c>
       <c r="Q3">
-        <v>-1.006165636918688E-18</v>
+        <v>-8.309797294714372E-17</v>
       </c>
       <c r="R3">
         <v>0.5018</v>
@@ -872,126 +890,132 @@
         <v>0.5013</v>
       </c>
       <c r="W3">
-        <v>-2.369215934550084E-17</v>
+        <v>-4.46753745109163E-18</v>
       </c>
       <c r="X3">
-        <v>-2.594211737788621E-18</v>
+        <v>1.50662954334635E-16</v>
       </c>
       <c r="Y3">
-        <v>-7.854134009832592E-19</v>
+        <v>9.490896957231599E-16</v>
       </c>
       <c r="Z3">
-        <v>-2.468606916106175E-18</v>
+        <v>4.753582527605715E-15</v>
       </c>
       <c r="AA3">
-        <v>3.423125498336343E-17</v>
+        <v>-2.521478026373814E-15</v>
       </c>
       <c r="AB3">
-        <v>2.594211737788621E-18</v>
+        <v>-1.50662954334635E-16</v>
       </c>
       <c r="AC3">
-        <v>1.314615950820386E-17</v>
+        <v>-5.630090837982493E-16</v>
       </c>
       <c r="AD3">
-        <v>-4.134201661565306E-18</v>
+        <v>-1.465643162390506E-15</v>
       </c>
       <c r="AE3">
-        <v>1.001509986053861E-16</v>
+        <v>-1.69887659495771E-15</v>
       </c>
       <c r="AF3">
-        <v>-1.079743933152244E-18</v>
+        <v>-0.49996</v>
       </c>
       <c r="AG3">
-        <v>-2.414041189169325E-18</v>
+        <v>0.67748</v>
       </c>
       <c r="AH3">
-        <v>1.935578919365355E-15</v>
+        <v>-1.674083094371781E-16</v>
       </c>
       <c r="AI3">
-        <v>5.292207644336244E-20</v>
+        <v>1.018890527504368E-16</v>
       </c>
       <c r="AJ3">
-        <v>3.359573903793933E-19</v>
+        <v>1.465583210347177E-16</v>
       </c>
       <c r="AK3">
-        <v>2.409357435784188E-19</v>
+        <v>1.455308096254271E-17</v>
       </c>
       <c r="AL3">
-        <v>2.203098814490545E-21</v>
+        <v>2.123870523895732E-17</v>
       </c>
       <c r="AM3">
-        <v>2.270406085358445E-19</v>
+        <v>1.560557238988736E-17</v>
       </c>
       <c r="AN3">
-        <v>-4.422894342437366E-19</v>
+        <v>1.244726544058494E-17</v>
       </c>
       <c r="AO3">
-        <v>-1.78312226095656E-19</v>
+        <v>-2.735200954617767E-17</v>
       </c>
       <c r="AP3">
-        <v>2.943825738732641E-19</v>
+        <v>-1.351085909817584E-17</v>
       </c>
       <c r="AQ3">
-        <v>8.124143718868382E-20</v>
+        <v>-1.396216475768597E-17</v>
       </c>
       <c r="AR3">
+        <v>-2.462030579408747E-17</v>
+      </c>
+      <c r="AS3">
+        <v>2.271016708021989E-17</v>
+      </c>
+      <c r="AT3">
         <v>0.50267</v>
       </c>
-      <c r="AS3">
+      <c r="AU3">
         <v>0.49733</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:47">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>0.2922816821679679</v>
+        <v>0.9999999999998299</v>
       </c>
       <c r="C4">
-        <v>0.01716760492191551</v>
+        <v>1.00000000000028</v>
       </c>
       <c r="D4">
-        <v>0.2921037768748556</v>
+        <v>0.999999999999806</v>
       </c>
       <c r="E4">
-        <v>0.009032367709177284</v>
+        <v>1.000000000000143</v>
       </c>
       <c r="F4">
-        <v>0.2923387367793796</v>
+        <v>1.000000000000121</v>
       </c>
       <c r="G4">
-        <v>0.01503300899746</v>
+        <v>0.9999999999998412</v>
       </c>
       <c r="H4">
-        <v>0.2920455256052517</v>
+        <v>1.000000000000077</v>
       </c>
       <c r="I4">
-        <v>0.007716569755193268</v>
+        <v>0.9999999999999518</v>
       </c>
       <c r="J4">
-        <v>0.2923938548323287</v>
+        <v>1.000000000000872</v>
       </c>
       <c r="K4">
-        <v>0.01758456628890163</v>
+        <v>1.000000000000765</v>
       </c>
       <c r="L4">
-        <v>0.2919855489968262</v>
+        <v>1.000000000000118</v>
       </c>
       <c r="M4">
-        <v>0.01013465229576896</v>
+        <v>1.000000000000201</v>
       </c>
       <c r="N4">
-        <v>0.2924449325010562</v>
+        <v>1.000000000000071</v>
       </c>
       <c r="O4">
-        <v>0.02011018204211739</v>
+        <v>0.9999999999998637</v>
       </c>
       <c r="P4">
-        <v>0.2919225754179126</v>
+        <v>0.9999999999999244</v>
       </c>
       <c r="Q4">
-        <v>0.008955875406188345</v>
+        <v>1.000000000000197</v>
       </c>
       <c r="R4">
         <v>0.4999992599922893</v>
@@ -1009,126 +1033,132 @@
         <v>0.5000008100077311</v>
       </c>
       <c r="W4">
-        <v>0.292191302876743</v>
+        <v>1.000000000000242</v>
       </c>
       <c r="X4">
-        <v>0.004934118972298353</v>
+        <v>1.00000000000158</v>
       </c>
       <c r="Y4">
-        <v>0.01894888446339443</v>
+        <v>1.00000000000052</v>
       </c>
       <c r="Z4">
-        <v>0.02242979963525382</v>
+        <v>1.000000000001338</v>
       </c>
       <c r="AA4">
-        <v>0.01555810765276513</v>
+        <v>1.000000000000104</v>
       </c>
       <c r="AB4">
-        <v>0.004934118972298353</v>
+        <v>1.00000000000158</v>
       </c>
       <c r="AC4">
-        <v>0.02222050944574278</v>
+        <v>0.9999999999996897</v>
       </c>
       <c r="AD4">
-        <v>0.01200224906069649</v>
+        <v>1.000000000000651</v>
       </c>
       <c r="AE4">
-        <v>0.02423588087787793</v>
+        <v>1.000000000001962</v>
       </c>
       <c r="AF4">
-        <v>0.03150079832749241</v>
+        <v>1.042473436548353</v>
       </c>
       <c r="AG4">
-        <v>0.01619356131693179</v>
+        <v>2.219790558656542</v>
       </c>
       <c r="AH4">
-        <v>0.499303462975566</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="AI4">
-        <v>0.009277159329158577</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.01650154706732232</v>
+        <v>0.9999999999995253</v>
       </c>
       <c r="AK4">
-        <v>0.01520329563251413</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="AL4">
-        <v>0.01706128955560276</v>
+        <v>0.9999999999999962</v>
       </c>
       <c r="AM4">
-        <v>0.01961077940057681</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="AN4">
-        <v>0.009009539163587533</v>
+        <v>1.000000000000018</v>
       </c>
       <c r="AO4">
-        <v>0.00769072532294256</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="AP4">
-        <v>0.0102230388892045</v>
+        <v>1.00000000000001</v>
       </c>
       <c r="AQ4">
-        <v>0.009005991636555872</v>
+        <v>1.00000000000001</v>
       </c>
       <c r="AR4">
+        <v>1.000000000000008</v>
+      </c>
+      <c r="AS4">
+        <v>0.9999999999999817</v>
+      </c>
+      <c r="AT4">
         <v>0.4999953710326497</v>
       </c>
-      <c r="AS4">
+      <c r="AU4">
         <v>0.4999953710326497</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:47">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5">
-        <v>-0.4685064761306534</v>
+        <v>-1.602927944904058</v>
       </c>
       <c r="C5">
-        <v>-0.006326360409079204</v>
+        <v>-0.3685057081551573</v>
       </c>
       <c r="D5">
-        <v>-0.4683292964824119</v>
+        <v>-1.603297641313793</v>
       </c>
       <c r="E5">
-        <v>-0.003479884230381541</v>
+        <v>-0.3852682200752271</v>
       </c>
       <c r="F5">
-        <v>-0.4686102826633164</v>
+        <v>-1.60297019760688</v>
       </c>
       <c r="G5">
-        <v>-0.005293326352791593</v>
+        <v>-0.3521135624734842</v>
       </c>
       <c r="H5">
-        <v>-0.4682279648241205</v>
+        <v>-1.603270462212357</v>
       </c>
       <c r="I5">
-        <v>-0.002926522564606895</v>
+        <v>-0.3792517475316511</v>
       </c>
       <c r="J5">
-        <v>-0.468718059045226</v>
+        <v>-1.603036627819754</v>
       </c>
       <c r="K5">
-        <v>-0.007176196929331506</v>
+        <v>-0.4080963278498814</v>
       </c>
       <c r="L5">
-        <v>-0.4681193592964826</v>
+        <v>-1.603227834065232</v>
       </c>
       <c r="M5">
-        <v>-0.00466040030279186</v>
+        <v>-0.4598480704402219</v>
       </c>
       <c r="N5">
-        <v>-0.4688371796482413</v>
+        <v>-1.60316397223451</v>
       </c>
       <c r="O5">
-        <v>-0.007853886893660312</v>
+        <v>-0.3905428044961904</v>
       </c>
       <c r="P5">
-        <v>-0.4679977826633164</v>
+        <v>-1.603157213837657</v>
       </c>
       <c r="Q5">
-        <v>-0.004815018476279645</v>
+        <v>-0.5376379480393609</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1146,126 +1176,132 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>-0.4684178863065326</v>
+        <v>-1.603120564147112</v>
       </c>
       <c r="X5">
-        <v>-0.002165658783783784</v>
+        <v>-0.4389149908914628</v>
       </c>
       <c r="Y5">
-        <v>-0.003178076923076922</v>
+        <v>-0.1677184178952218</v>
       </c>
       <c r="Z5">
-        <v>-0.00373</v>
+        <v>-0.1662966259467067</v>
       </c>
       <c r="AA5">
-        <v>-0.002597808219178082</v>
+        <v>-0.1669745625338702</v>
       </c>
       <c r="AB5">
-        <v>-0.9978343412162162</v>
+        <v>-202.2315122149132</v>
       </c>
       <c r="AC5">
-        <v>-0.996415111111111</v>
+        <v>-44.84213620502572</v>
       </c>
       <c r="AD5">
-        <v>-0.9980788888888888</v>
+        <v>-83.15765518951417</v>
       </c>
       <c r="AE5">
-        <v>-0.9956988888888889</v>
+        <v>-41.08366821517423</v>
       </c>
       <c r="AF5">
-        <v>-0.01846667612784371</v>
+        <v>-3</v>
       </c>
       <c r="AG5">
-        <v>-0.01148002576776378</v>
+        <v>-4</v>
       </c>
       <c r="AH5">
-        <v>-0.47357</v>
+        <v>-0.586228829373028</v>
       </c>
       <c r="AI5">
-        <v>-0.6180142504985439</v>
+        <v>-0.7089253279795438</v>
       </c>
       <c r="AJ5">
-        <v>-0.005409362568590828</v>
+        <v>-0.9484612767910539</v>
       </c>
       <c r="AK5">
-        <v>-0.004717319209944008</v>
+        <v>-66.616755040101</v>
       </c>
       <c r="AL5">
-        <v>-0.006146264704095659</v>
+        <v>-0.3278094197181586</v>
       </c>
       <c r="AM5">
-        <v>-0.006746769963114372</v>
+        <v>-0.3102826731761659</v>
       </c>
       <c r="AN5">
-        <v>-0.003107579394614801</v>
+        <v>-0.3602461985106708</v>
       </c>
       <c r="AO5">
-        <v>-0.002591206737664204</v>
+        <v>-0.3440337492611817</v>
       </c>
       <c r="AP5">
-        <v>-0.004166143981376012</v>
+        <v>-0.3449210151806918</v>
       </c>
       <c r="AQ5">
-        <v>-0.004302368700658898</v>
+        <v>-0.3369261843137586</v>
       </c>
       <c r="AR5">
+        <v>-0.4075250056786422</v>
+      </c>
+      <c r="AS5">
+        <v>-0.4777229287217261</v>
+      </c>
+      <c r="AT5">
         <v>0</v>
       </c>
-      <c r="AS5">
+      <c r="AU5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:47">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>-0.2517979334170856</v>
+        <v>-0.8614906399517543</v>
       </c>
       <c r="C6">
-        <v>-0.004505369348489865</v>
+        <v>-0.2624343563928325</v>
       </c>
       <c r="D6">
-        <v>-0.2516207537688441</v>
+        <v>-0.8614087652710766</v>
       </c>
       <c r="E6">
-        <v>-0.002491850417668839</v>
+        <v>-0.2758800901269424</v>
       </c>
       <c r="F6">
-        <v>-0.2519017399497486</v>
+        <v>-0.8616775960822826</v>
       </c>
       <c r="G6">
-        <v>-0.00281274098450569</v>
+        <v>-0.1871043238902424</v>
       </c>
       <c r="H6">
-        <v>-0.2515194221105527</v>
+        <v>-0.861233609346772</v>
       </c>
       <c r="I6">
-        <v>-0.001567455744959843</v>
+        <v>-0.2031285655008771</v>
       </c>
       <c r="J6">
-        <v>-0.2520095163316581</v>
+        <v>-0.8618837645421489</v>
       </c>
       <c r="K6">
-        <v>-0.0041116882516901</v>
+        <v>-0.2338236942634374</v>
       </c>
       <c r="L6">
-        <v>-0.2514108165829147</v>
+        <v>-0.8610385597736298</v>
       </c>
       <c r="M6">
-        <v>-0.002678308847697686</v>
+        <v>-0.2642723962829853</v>
       </c>
       <c r="N6">
-        <v>-0.2521286369346735</v>
+        <v>-0.862140556782483</v>
       </c>
       <c r="O6">
-        <v>-0.004786544075712502</v>
+        <v>-0.2380159496162764</v>
       </c>
       <c r="P6">
-        <v>-0.2512892399497486</v>
+        <v>-0.8608078343718164</v>
       </c>
       <c r="Q6">
-        <v>-0.00283292702118547</v>
+        <v>-0.3163205038814804</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1283,126 +1319,132 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>-0.251395273241206</v>
+        <v>-0.8603790419707099</v>
       </c>
       <c r="X6">
-        <v>-0.002165658783783784</v>
+        <v>-0.4389149908914628</v>
       </c>
       <c r="Y6">
-        <v>-0.003178076923076922</v>
+        <v>-0.1677184178952218</v>
       </c>
       <c r="Z6">
-        <v>-0.00373</v>
+        <v>-0.1662966259467067</v>
       </c>
       <c r="AA6">
-        <v>-0.002597808219178082</v>
+        <v>-0.1669745625338702</v>
       </c>
       <c r="AB6">
-        <v>0.0004764695945945945</v>
+        <v>0.09656629628706302</v>
       </c>
       <c r="AC6">
-        <v>0.00358488888888889</v>
+        <v>0.1613324346879692</v>
       </c>
       <c r="AD6">
-        <v>0.001921111111111112</v>
+        <v>0.1600625933851478</v>
       </c>
       <c r="AE6">
-        <v>0.004301111111111112</v>
+        <v>0.1774687345917156</v>
       </c>
       <c r="AF6">
-        <v>-0.008270026455593162</v>
+        <v>-1</v>
       </c>
       <c r="AG6">
-        <v>-0.004980294323613198</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>-0.47357</v>
+        <v>-0.2625338688122891</v>
       </c>
       <c r="AI6">
-        <v>-0.001321598183412844</v>
+        <v>-0.3075478102772492</v>
       </c>
       <c r="AJ6">
-        <v>-0.003903647205469859</v>
+        <v>-0.9484612767910539</v>
       </c>
       <c r="AK6">
-        <v>-0.002732200345236563</v>
+        <v>-0.1424572044654872</v>
       </c>
       <c r="AL6">
-        <v>-0.003731905350403421</v>
+        <v>-0.2365624986277899</v>
       </c>
       <c r="AM6">
-        <v>-0.004261338306168225</v>
+        <v>-0.1797110581335679</v>
       </c>
       <c r="AN6">
-        <v>-0.00224856270937249</v>
+        <v>-0.2187352449673377</v>
       </c>
       <c r="AO6">
-        <v>-0.001470220222249696</v>
+        <v>-0.2172957137054379</v>
       </c>
       <c r="AP6">
-        <v>-0.002460490321882362</v>
+        <v>-0.2495757739152928</v>
       </c>
       <c r="AQ6">
-        <v>-0.002584301117902885</v>
+        <v>-0.1911679536732162</v>
       </c>
       <c r="AR6">
+        <v>-0.2406809118647344</v>
+      </c>
+      <c r="AS6">
+        <v>-0.2869535329583268</v>
+      </c>
+      <c r="AT6">
         <v>0</v>
       </c>
-      <c r="AS6">
+      <c r="AU6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:47">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7">
-        <v>-0.09853160175879415</v>
+        <v>-0.3371117923912842</v>
       </c>
       <c r="C7">
-        <v>-0.002665984438803664</v>
+        <v>-0.1552915768349286</v>
       </c>
       <c r="D7">
-        <v>-0.09835442211055262</v>
+        <v>-0.3367105456930394</v>
       </c>
       <c r="E7">
-        <v>-0.001493836465433787</v>
+        <v>-0.1653870295731193</v>
       </c>
       <c r="F7">
-        <v>-0.09863540829145717</v>
+        <v>-0.3374010894967702</v>
       </c>
       <c r="G7">
-        <v>-0.001566215673809257</v>
+        <v>-0.1041851085217792</v>
       </c>
       <c r="H7">
-        <v>-0.09888123115577885</v>
+        <v>-0.3385815651544904</v>
       </c>
       <c r="I7">
-        <v>-0.0008845075943834345</v>
+        <v>-0.1146244539276238</v>
       </c>
       <c r="J7">
-        <v>-0.09874318467336671</v>
+        <v>-0.3377060873255236</v>
       </c>
       <c r="K7">
-        <v>-0.002571734142322559</v>
+        <v>-0.146249506531556</v>
       </c>
       <c r="L7">
-        <v>-0.09877262562814079</v>
+        <v>-0.3382791578812837</v>
       </c>
       <c r="M7">
-        <v>-0.001682282990866443</v>
+        <v>-0.1659931630381428</v>
       </c>
       <c r="N7">
-        <v>-0.098862305276382</v>
+        <v>-0.338054431071484</v>
       </c>
       <c r="O7">
-        <v>-0.003245165775236217</v>
+        <v>-0.161369288872601</v>
       </c>
       <c r="P7">
-        <v>-0.0986510489949747</v>
+        <v>-0.3379356627480503</v>
       </c>
       <c r="Q7">
-        <v>-0.001836901164354227</v>
+        <v>-0.205105707822244</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1420,126 +1462,132 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>-0.09875708228643217</v>
+        <v>-0.3379877543039498</v>
       </c>
       <c r="X7">
-        <v>-0.0004764695945945945</v>
+        <v>-0.09656629628706302</v>
       </c>
       <c r="Y7">
-        <v>-0.003178076923076922</v>
+        <v>-0.1677184178952218</v>
       </c>
       <c r="Z7">
-        <v>-0.00373</v>
+        <v>-0.1662966259467067</v>
       </c>
       <c r="AA7">
-        <v>-0.002597808219178082</v>
+        <v>-0.1669745625338702</v>
       </c>
       <c r="AB7">
-        <v>0.0004764695945945945</v>
+        <v>0.09656629628706302</v>
       </c>
       <c r="AC7">
-        <v>0.00358488888888889</v>
+        <v>0.1613324346879692</v>
       </c>
       <c r="AD7">
-        <v>0.001921111111111112</v>
+        <v>0.1600625933851478</v>
       </c>
       <c r="AE7">
-        <v>0.004301111111111112</v>
+        <v>0.1774687345917156</v>
       </c>
       <c r="AF7">
-        <v>-0.003653686110278051</v>
+        <v>-1</v>
       </c>
       <c r="AG7">
-        <v>-0.00171003195474664</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>-0.47357</v>
+        <v>-0.1159870957012824</v>
       </c>
       <c r="AI7">
-        <v>-0.0001850659351842573</v>
+        <v>-0.105599498546283</v>
       </c>
       <c r="AJ7">
-        <v>-0.002400626772313016</v>
+        <v>-0.9484612767910539</v>
       </c>
       <c r="AK7">
-        <v>-0.00164379420563356</v>
+        <v>-0.01994855630026596</v>
       </c>
       <c r="AL7">
-        <v>-0.002364493512118292</v>
+        <v>-0.145478891313586</v>
       </c>
       <c r="AM7">
-        <v>-0.002606933781684759</v>
+        <v>-0.1081209130813785</v>
       </c>
       <c r="AN7">
-        <v>-0.001305429309187358</v>
+        <v>-0.1385882060328689</v>
       </c>
       <c r="AO7">
-        <v>-0.0008475269133702767</v>
+        <v>-0.1329337161177841</v>
       </c>
       <c r="AP7">
-        <v>-0.001260025148901615</v>
+        <v>-0.1448941267121981</v>
       </c>
       <c r="AQ7">
-        <v>-0.001370064248802953</v>
+        <v>-0.1102011680019296</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>-0.123253482898535</v>
       </c>
       <c r="AS7">
+        <v>-0.152128083623991</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:47">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8">
-        <v>0.3166694032663315</v>
+        <v>1.083439102024579</v>
       </c>
       <c r="C8">
-        <v>0.001012785380568738</v>
+        <v>0.05899398228087901</v>
       </c>
       <c r="D8">
-        <v>0.3162184422110554</v>
+        <v>1.082555130214766</v>
       </c>
       <c r="E8">
-        <v>0.0005021914390363175</v>
+        <v>0.05559909153452661</v>
       </c>
       <c r="F8">
-        <v>0.3165655967336684</v>
+        <v>1.082872561540212</v>
       </c>
       <c r="G8">
-        <v>0.000316037545342358</v>
+        <v>0.02102290668460024</v>
       </c>
       <c r="H8">
-        <v>0.3163197738693467</v>
+        <v>1.083118028306818</v>
       </c>
       <c r="I8">
-        <v>0.0004813887067693819</v>
+        <v>0.06238376921888283</v>
       </c>
       <c r="J8">
-        <v>0.316457820351759</v>
+        <v>1.08229983333099</v>
       </c>
       <c r="K8">
-        <v>0.0007083681106303032</v>
+        <v>0.04028351333735131</v>
       </c>
       <c r="L8">
-        <v>0.3164283793969849</v>
+        <v>1.08371246619625</v>
       </c>
       <c r="M8">
-        <v>0.001305794579627287</v>
+        <v>0.1288445366963847</v>
       </c>
       <c r="N8">
-        <v>0.3163386997487436</v>
+        <v>1.081703475055444</v>
       </c>
       <c r="O8">
-        <v>0.002920347426668927</v>
+        <v>0.1452173541021005</v>
       </c>
       <c r="P8">
-        <v>0.3165499560301509</v>
+        <v>1.084362713561865</v>
       </c>
       <c r="Q8">
-        <v>0.001718911144533312</v>
+        <v>0.19193111410923</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1557,126 +1605,132 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0.3164439227386935</v>
+        <v>1.083002538485056</v>
       </c>
       <c r="X8">
-        <v>-0.0004764695945945945</v>
+        <v>-0.09656629628706302</v>
       </c>
       <c r="Y8">
-        <v>-0.003178076923076922</v>
+        <v>-0.1677184178952218</v>
       </c>
       <c r="Z8">
-        <v>-0.00373</v>
+        <v>-0.1662966259467067</v>
       </c>
       <c r="AA8">
-        <v>-0.002597808219178082</v>
+        <v>-0.1669745625338702</v>
       </c>
       <c r="AB8">
-        <v>0.002165658783783784</v>
+        <v>0.4389149908914628</v>
       </c>
       <c r="AC8">
-        <v>0.00358488888888889</v>
+        <v>0.1613324346879692</v>
       </c>
       <c r="AD8">
-        <v>0.001921111111111112</v>
+        <v>0.1600625933851478</v>
       </c>
       <c r="AE8">
-        <v>0.004301111111111112</v>
+        <v>0.1774687345917156</v>
       </c>
       <c r="AF8">
-        <v>0.001637432522171287</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.001791392411087617</v>
+        <v>2</v>
       </c>
       <c r="AH8">
-        <v>0.52643</v>
+        <v>0.05198066744683217</v>
       </c>
       <c r="AI8">
-        <v>0.0009510778878057003</v>
+        <v>0.110623745822631</v>
       </c>
       <c r="AJ8">
-        <v>0.0004224607568221627</v>
+        <v>1.054328758031789</v>
       </c>
       <c r="AK8">
-        <v>0.0001750710680195703</v>
+        <v>0.1025182228806199</v>
       </c>
       <c r="AL8">
-        <v>0.0008960181140010338</v>
+        <v>0.02560128181307023</v>
       </c>
       <c r="AM8">
-        <v>0.001592498118916402</v>
+        <v>0.01151533669089216</v>
       </c>
       <c r="AN8">
-        <v>0.0003269791538684095</v>
+        <v>0.05251760783268561</v>
       </c>
       <c r="AO8">
-        <v>0.0001624052026736647</v>
+        <v>0.08120524362583804</v>
       </c>
       <c r="AP8">
-        <v>0.0007617025142558879</v>
+        <v>0.03629255036594014</v>
       </c>
       <c r="AQ8">
-        <v>0.00135750745299948</v>
+        <v>0.02111702028795492</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0.0745084238171342</v>
       </c>
       <c r="AS8">
+        <v>0.1507338123088252</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:47">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B9">
-        <v>0.5314935238693466</v>
+        <v>1.818429126064255</v>
       </c>
       <c r="C9">
-        <v>0.9936736395909208</v>
+        <v>57.88073782629484</v>
       </c>
       <c r="D9">
-        <v>0.5316707035175882</v>
+        <v>1.820143201178974</v>
       </c>
       <c r="E9">
-        <v>0.9965201157696184</v>
+        <v>110.3276735242499</v>
       </c>
       <c r="F9">
-        <v>0.5313897173366835</v>
+        <v>1.817719140442857</v>
       </c>
       <c r="G9">
-        <v>0.9947066736472083</v>
+        <v>66.16816858256877</v>
       </c>
       <c r="H9">
-        <v>0.5317720351758795</v>
+        <v>1.82085321825724</v>
       </c>
       <c r="I9">
-        <v>0.9970734774353932</v>
+        <v>129.2120085824888</v>
       </c>
       <c r="J9">
-        <v>0.531281940954774</v>
+        <v>1.817007889101834</v>
       </c>
       <c r="K9">
-        <v>0.9928238030706684</v>
+        <v>56.45995395960193</v>
       </c>
       <c r="L9">
-        <v>0.5318806407035175</v>
+        <v>1.82159919397022</v>
       </c>
       <c r="M9">
-        <v>0.9953395996972082</v>
+        <v>98.21151931504922</v>
       </c>
       <c r="N9">
-        <v>0.5311628203517587</v>
+        <v>1.816283208633975</v>
       </c>
       <c r="O9">
-        <v>0.9921461131063396</v>
+        <v>49.33551128617808</v>
       </c>
       <c r="P9">
-        <v>0.5320022173366835</v>
+        <v>1.822408618364135</v>
       </c>
       <c r="Q9">
-        <v>0.9951849815237204</v>
+        <v>111.1209051474734</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1694,72 +1748,78 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>0.5315821136934673</v>
+        <v>1.819294785505078</v>
       </c>
       <c r="X9">
-        <v>0.9978343412162162</v>
+        <v>202.2315122149132</v>
       </c>
       <c r="Y9">
-        <v>0.9968219230769231</v>
+        <v>52.60583677121006</v>
       </c>
       <c r="Z9">
-        <v>0.99627</v>
+        <v>44.41724920426955</v>
       </c>
       <c r="AA9">
-        <v>0.997402191780822</v>
+        <v>64.10819452084792</v>
       </c>
       <c r="AB9">
-        <v>0.002165658783783784</v>
+        <v>0.4389149908914628</v>
       </c>
       <c r="AC9">
-        <v>0.00358488888888889</v>
+        <v>0.1613324346879692</v>
       </c>
       <c r="AD9">
-        <v>0.001921111111111112</v>
+        <v>0.1600625933851478</v>
       </c>
       <c r="AE9">
-        <v>0.004301111111111112</v>
+        <v>0.1774687345917156</v>
       </c>
       <c r="AF9">
-        <v>0.9815333238721563</v>
+        <v>2</v>
       </c>
       <c r="AG9">
-        <v>0.9885199742322363</v>
+        <v>4</v>
       </c>
       <c r="AH9">
-        <v>0.52643</v>
+        <v>31.15899837419087</v>
       </c>
       <c r="AI9">
-        <v>0.3819857495014563</v>
+        <v>61.04401341282234</v>
       </c>
       <c r="AJ9">
-        <v>0.9945906374314092</v>
+        <v>1.054328758031789</v>
       </c>
       <c r="AK9">
-        <v>0.9952826807900561</v>
+        <v>41.17486139327762</v>
       </c>
       <c r="AL9">
-        <v>0.9938537352959043</v>
+        <v>60.27256919449533</v>
       </c>
       <c r="AM9">
-        <v>0.9932532300368857</v>
+        <v>65.46492976572276</v>
       </c>
       <c r="AN9">
-        <v>0.9968924206053852</v>
+        <v>58.25197046547634</v>
       </c>
       <c r="AO9">
-        <v>0.9974087932623358</v>
+        <v>50.64833017333691</v>
       </c>
       <c r="AP9">
-        <v>0.9958338560186241</v>
+        <v>110.6485473346268</v>
       </c>
       <c r="AQ9">
-        <v>0.9956976312993411</v>
+        <v>129.6898213601429</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>97.41074711847466</v>
       </c>
       <c r="AS9">
+        <v>110.5594665730901</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
         <v>1</v>
       </c>
     </row>

--- a/output/describe.xlsx
+++ b/output/describe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>A_P_L1</t>
   </si>
@@ -109,7 +109,10 @@
     <t>LC_FP</t>
   </si>
   <si>
-    <t>LC_CONCAT</t>
+    <t>LC_CONCAT_RANDOM</t>
+  </si>
+  <si>
+    <t>LC_CONCAT_ENTROPY</t>
   </si>
   <si>
     <t>SUM_V_A</t>
@@ -533,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU9"/>
+  <dimension ref="A1:AV9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,10 +681,13 @@
       <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:48">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>100000</v>
@@ -821,10 +827,13 @@
       <c r="AU2">
         <v>100000</v>
       </c>
+      <c r="AV2">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:48">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>-5.746669806683258E-16</v>
@@ -920,54 +929,57 @@
         <v>-0.49996</v>
       </c>
       <c r="AG3">
-        <v>0.67748</v>
+        <v>2.33874</v>
       </c>
       <c r="AH3">
+        <v>0.5987242319680923</v>
+      </c>
+      <c r="AI3">
         <v>-1.674083094371781E-16</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1.018890527504368E-16</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1.465583210347177E-16</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1.455308096254271E-17</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>2.123870523895732E-17</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1.560557238988736E-17</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1.244726544058494E-17</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>-2.735200954617767E-17</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>-1.351085909817584E-17</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>-1.396216475768597E-17</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>-2.462030579408747E-17</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>2.271016708021989E-17</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>0.50267</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>0.49733</v>
       </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:48">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>0.9999999999998299</v>
@@ -1063,54 +1075,57 @@
         <v>1.042473436548353</v>
       </c>
       <c r="AG4">
-        <v>2.219790558656542</v>
+        <v>1.109895279328271</v>
       </c>
       <c r="AH4">
+        <v>0.153252826330091</v>
+      </c>
+      <c r="AI4">
         <v>1.000000000000016</v>
       </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
       <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
         <v>0.9999999999995253</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1.000000000000003</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>0.9999999999999962</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1.000000000000002</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1.000000000000018</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>1.000000000000003</v>
-      </c>
-      <c r="AP4">
-        <v>1.00000000000001</v>
       </c>
       <c r="AQ4">
         <v>1.00000000000001</v>
       </c>
       <c r="AR4">
+        <v>1.00000000000001</v>
+      </c>
+      <c r="AS4">
         <v>1.000000000000008</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>0.9999999999999817</v>
-      </c>
-      <c r="AT4">
-        <v>0.4999953710326497</v>
       </c>
       <c r="AU4">
         <v>0.4999953710326497</v>
       </c>
+      <c r="AV4">
+        <v>0.4999953710326497</v>
+      </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:48">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>-1.602927944904058</v>
@@ -1206,54 +1221,57 @@
         <v>-3</v>
       </c>
       <c r="AG5">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
         <v>-0.586228829373028</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-0.7089253279795438</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-0.9484612767910539</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-66.616755040101</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-0.3278094197181586</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-0.3102826731761659</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-0.3602461985106708</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>-0.3440337492611817</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>-0.3449210151806918</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>-0.3369261843137586</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>-0.4075250056786422</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>-0.4777229287217261</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
       </c>
       <c r="AU5">
         <v>0</v>
       </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:48">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>-0.8614906399517543</v>
@@ -1349,54 +1367,57 @@
         <v>-1</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH6">
+        <v>0.5004024235381879</v>
+      </c>
+      <c r="AI6">
         <v>-0.2625338688122891</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-0.3075478102772492</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-0.9484612767910539</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-0.1424572044654872</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-0.2365624986277899</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>-0.1797110581335679</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-0.2187352449673377</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>-0.2172957137054379</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>-0.2495757739152928</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>-0.1911679536732162</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>-0.2406809118647344</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>-0.2869535329583268</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
       </c>
       <c r="AU6">
         <v>0</v>
       </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:48">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>-0.3371117923912842</v>
@@ -1492,54 +1513,57 @@
         <v>-1</v>
       </c>
       <c r="AG7">
+        <v>2</v>
+      </c>
+      <c r="AH7">
+        <v>0.6730116670092565</v>
+      </c>
+      <c r="AI7">
+        <v>-0.1159870957012824</v>
+      </c>
+      <c r="AJ7">
+        <v>-0.105599498546283</v>
+      </c>
+      <c r="AK7">
+        <v>-0.9484612767910539</v>
+      </c>
+      <c r="AL7">
+        <v>-0.01994855630026596</v>
+      </c>
+      <c r="AM7">
+        <v>-0.145478891313586</v>
+      </c>
+      <c r="AN7">
+        <v>-0.1081209130813785</v>
+      </c>
+      <c r="AO7">
+        <v>-0.1385882060328689</v>
+      </c>
+      <c r="AP7">
+        <v>-0.1329337161177841</v>
+      </c>
+      <c r="AQ7">
+        <v>-0.1448941267121981</v>
+      </c>
+      <c r="AR7">
+        <v>-0.1102011680019296</v>
+      </c>
+      <c r="AS7">
+        <v>-0.123253482898535</v>
+      </c>
+      <c r="AT7">
+        <v>-0.152128083623991</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
         <v>0</v>
       </c>
-      <c r="AH7">
-        <v>-0.1159870957012824</v>
-      </c>
-      <c r="AI7">
-        <v>-0.105599498546283</v>
-      </c>
-      <c r="AJ7">
-        <v>-0.9484612767910539</v>
-      </c>
-      <c r="AK7">
-        <v>-0.01994855630026596</v>
-      </c>
-      <c r="AL7">
-        <v>-0.145478891313586</v>
-      </c>
-      <c r="AM7">
-        <v>-0.1081209130813785</v>
-      </c>
-      <c r="AN7">
-        <v>-0.1385882060328689</v>
-      </c>
-      <c r="AO7">
-        <v>-0.1329337161177841</v>
-      </c>
-      <c r="AP7">
-        <v>-0.1448941267121981</v>
-      </c>
-      <c r="AQ7">
-        <v>-0.1102011680019296</v>
-      </c>
-      <c r="AR7">
-        <v>-0.123253482898535</v>
-      </c>
-      <c r="AS7">
-        <v>-0.152128083623991</v>
-      </c>
-      <c r="AT7">
-        <v>1</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:48">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>1.083439102024579</v>
@@ -1635,54 +1659,57 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH8">
+        <v>0.6730116670092565</v>
+      </c>
+      <c r="AI8">
         <v>0.05198066744683217</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>0.110623745822631</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>1.054328758031789</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>0.1025182228806199</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>0.02560128181307023</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>0.01151533669089216</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>0.05251760783268561</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>0.08120524362583804</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>0.03629255036594014</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>0.02111702028795492</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>0.0745084238171342</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>0.1507338123088252</v>
       </c>
-      <c r="AT8">
-        <v>1</v>
-      </c>
       <c r="AU8">
         <v>1</v>
       </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:48">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>1.818429126064255</v>
@@ -1781,45 +1808,48 @@
         <v>4</v>
       </c>
       <c r="AH9">
+        <v>0.6730116670092565</v>
+      </c>
+      <c r="AI9">
         <v>31.15899837419087</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>61.04401341282234</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>1.054328758031789</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>41.17486139327762</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>60.27256919449533</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>65.46492976572276</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>58.25197046547634</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>50.64833017333691</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>110.6485473346268</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>129.6898213601429</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>97.41074711847466</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>110.5594665730901</v>
       </c>
-      <c r="AT9">
-        <v>1</v>
-      </c>
       <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
         <v>1</v>
       </c>
     </row>

--- a/output/describe.xlsx
+++ b/output/describe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>A_P_L1</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>LC_FP</t>
+  </si>
+  <si>
+    <t>LC_FP_R</t>
   </si>
   <si>
     <t>LC_CONCAT_RANDOM</t>
@@ -536,13 +539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV9"/>
+  <dimension ref="A1:AW9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:49">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,10 +687,13 @@
       <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:49">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>100000</v>
@@ -830,10 +836,13 @@
       <c r="AV2">
         <v>100000</v>
       </c>
+      <c r="AW2">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:49">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>-5.746669806683258E-16</v>
@@ -926,60 +935,63 @@
         <v>-1.69887659495771E-15</v>
       </c>
       <c r="AF3">
-        <v>-0.49996</v>
+        <v>8.234835036091681E-16</v>
       </c>
       <c r="AG3">
-        <v>2.33874</v>
+        <v>-1.713288177995764E-14</v>
       </c>
       <c r="AH3">
-        <v>0.5987242319680923</v>
+        <v>5.967515370741694E-16</v>
       </c>
       <c r="AI3">
+        <v>3.888196490331452E-12</v>
+      </c>
+      <c r="AJ3">
         <v>-1.674083094371781E-16</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1.018890527504368E-16</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1.465583210347177E-16</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1.455308096254271E-17</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>2.123870523895732E-17</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1.560557238988736E-17</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>1.244726544058494E-17</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>-2.735200954617767E-17</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>-1.351085909817584E-17</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>-1.396216475768597E-17</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>-2.462030579408747E-17</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>2.271016708021989E-17</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>0.50267</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>0.49733</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:49">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>0.9999999999998299</v>
@@ -1072,60 +1084,63 @@
         <v>1.000000000001962</v>
       </c>
       <c r="AF4">
-        <v>1.042473436548353</v>
+        <v>0.9999999999999838</v>
       </c>
       <c r="AG4">
-        <v>1.109895279328271</v>
+        <v>1.00000000000004</v>
       </c>
       <c r="AH4">
-        <v>0.153252826330091</v>
+        <v>1.000000000000246</v>
       </c>
       <c r="AI4">
+        <v>0.9999999999998764</v>
+      </c>
+      <c r="AJ4">
         <v>1.000000000000016</v>
       </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
       <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
         <v>0.9999999999995253</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1.000000000000003</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>0.9999999999999962</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1.000000000000002</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>1.000000000000018</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>1.000000000000003</v>
-      </c>
-      <c r="AQ4">
-        <v>1.00000000000001</v>
       </c>
       <c r="AR4">
         <v>1.00000000000001</v>
       </c>
       <c r="AS4">
+        <v>1.00000000000001</v>
+      </c>
+      <c r="AT4">
         <v>1.000000000000008</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>0.9999999999999817</v>
-      </c>
-      <c r="AU4">
-        <v>0.4999953710326497</v>
       </c>
       <c r="AV4">
         <v>0.4999953710326497</v>
       </c>
+      <c r="AW4">
+        <v>0.4999953710326497</v>
+      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:49">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>-1.602927944904058</v>
@@ -1218,60 +1233,63 @@
         <v>-41.08366821517423</v>
       </c>
       <c r="AF5">
-        <v>-3</v>
+        <v>-2.398181010997914</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>-1.276056972684166</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>-2.107171769768629</v>
       </c>
       <c r="AI5">
+        <v>-3.906774487006859</v>
+      </c>
+      <c r="AJ5">
         <v>-0.586228829373028</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-0.7089253279795438</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-0.9484612767910539</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-66.616755040101</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-0.3278094197181586</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-0.3102826731761659</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>-0.3602461985106708</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>-0.3440337492611817</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>-0.3449210151806918</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>-0.3369261843137586</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>-0.4075250056786422</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>-0.4777229287217261</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
       </c>
       <c r="AV5">
         <v>0</v>
       </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:49">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>-0.8614906399517543</v>
@@ -1364,60 +1382,63 @@
         <v>0.1774687345917156</v>
       </c>
       <c r="AF6">
-        <v>-1</v>
+        <v>-0.4796668984253841</v>
       </c>
       <c r="AG6">
-        <v>2</v>
+        <v>-0.7041803183340418</v>
       </c>
       <c r="AH6">
-        <v>0.5004024235381879</v>
+        <v>-0.3051999646354129</v>
       </c>
       <c r="AI6">
+        <v>-0.6415660368842354</v>
+      </c>
+      <c r="AJ6">
         <v>-0.2625338688122891</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-0.3075478102772492</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-0.9484612767910539</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-0.1424572044654872</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>-0.2365624986277899</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-0.1797110581335679</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>-0.2187352449673377</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>-0.2172957137054379</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>-0.2495757739152928</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>-0.1911679536732162</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>-0.2406809118647344</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>-0.2869535329583268</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
       </c>
       <c r="AV6">
         <v>0</v>
       </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:49">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>-0.3371117923912842</v>
@@ -1510,60 +1531,63 @@
         <v>0.1774687345917156</v>
       </c>
       <c r="AF7">
-        <v>-1</v>
+        <v>-0.4796668984253841</v>
       </c>
       <c r="AG7">
-        <v>2</v>
+        <v>-0.1323036639839179</v>
       </c>
       <c r="AH7">
-        <v>0.6730116670092565</v>
+        <v>-0.3051999646354129</v>
       </c>
       <c r="AI7">
+        <v>0.4847377814824546</v>
+      </c>
+      <c r="AJ7">
         <v>-0.1159870957012824</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>-0.105599498546283</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-0.9484612767910539</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>-0.01994855630026596</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>-0.145478891313586</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>-0.1081209130813785</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>-0.1385882060328689</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>-0.1329337161177841</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>-0.1448941267121981</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>-0.1102011680019296</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>-0.123253482898535</v>
       </c>
-      <c r="AT7">
+      <c r="AU7">
         <v>-0.152128083623991</v>
       </c>
-      <c r="AU7">
-        <v>1</v>
-      </c>
       <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:49">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>1.083439102024579</v>
@@ -1656,60 +1680,63 @@
         <v>0.1774687345917156</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.4795901578608812</v>
       </c>
       <c r="AG8">
-        <v>3</v>
+        <v>0.4395729903662062</v>
       </c>
       <c r="AH8">
-        <v>0.6730116670092565</v>
+        <v>0.5957859379311953</v>
       </c>
       <c r="AI8">
+        <v>0.4847377814824546</v>
+      </c>
+      <c r="AJ8">
         <v>0.05198066744683217</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>0.110623745822631</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>1.054328758031789</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>0.1025182228806199</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>0.02560128181307023</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>0.01151533669089216</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>0.05251760783268561</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>0.08120524362583804</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>0.03629255036594014</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>0.02111702028795492</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>0.0745084238171342</v>
       </c>
-      <c r="AT8">
+      <c r="AU8">
         <v>0.1507338123088252</v>
       </c>
-      <c r="AU8">
-        <v>1</v>
-      </c>
       <c r="AV8">
         <v>1</v>
       </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:49">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>1.818429126064255</v>
@@ -1802,54 +1829,57 @@
         <v>0.1774687345917156</v>
       </c>
       <c r="AF9">
-        <v>2</v>
+        <v>2.398104270433412</v>
       </c>
       <c r="AG9">
-        <v>4</v>
+        <v>2.155202953416578</v>
       </c>
       <c r="AH9">
-        <v>0.6730116670092565</v>
+        <v>1.496771840497803</v>
       </c>
       <c r="AI9">
+        <v>0.4847377814824546</v>
+      </c>
+      <c r="AJ9">
         <v>31.15899837419087</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>61.04401341282234</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>1.054328758031789</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>41.17486139327762</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>60.27256919449533</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>65.46492976572276</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>58.25197046547634</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>50.64833017333691</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>110.6485473346268</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>129.6898213601429</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>97.41074711847466</v>
       </c>
-      <c r="AT9">
+      <c r="AU9">
         <v>110.5594665730901</v>
       </c>
-      <c r="AU9">
-        <v>1</v>
-      </c>
       <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
         <v>1</v>
       </c>
     </row>
